--- a/Time-Card/GNSS/UBlox/RCB-F9T/Altium/FAB/GPS_MODULE_ZED-F9T-00B_BOM.xlsx
+++ b/Time-Card/GNSS/UBlox/RCB-F9T/Altium/FAB/GPS_MODULE_ZED-F9T-00B_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianstj\Desktop\WorkNotes\Projects\PTP\Time-Appliance-Project-master\Time-Card\GNSS\UBlox\RCB-F9T\Altium\FAB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\GitHub\Time-Appliance-Project\Time-Card\GNSS\UBlox\RCB-F9T\Altium\FAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46FEDEFE-6C99-4E09-9721-5A1EF5EB1596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{562D55FD-04DB-40C2-B712-799CA9B5E8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" xr2:uid="{8C2D4238-7775-4909-915C-BEEAB485D268}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="23865" windowHeight="12863" xr2:uid="{C4C347D8-EEBB-4E14-AA55-F6B7B9DDD40E}"/>
   </bookViews>
   <sheets>
     <sheet name="GPS_MODULE_ZED-F9T-00B_BOM" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,249 +37,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
-  <si>
-    <t>Comment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="97">
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer 1</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number 1</t>
+  </si>
+  <si>
+    <t>Supplier 1</t>
+  </si>
+  <si>
+    <t>Supplier Part Number 1</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>LibRef</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Murata_GRM155R61E105KA12D</t>
+    <t>Case/Package</t>
+  </si>
+  <si>
+    <t>C1, C2, C3, C4, C5</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>490-10017-1-ND</t>
   </si>
   <si>
     <t>CAP, CER, X5R, 1UF, 10%, 25V, 0402, 0.55MM T</t>
   </si>
   <si>
-    <t>C1, C2, C3, C4, C5</t>
-  </si>
-  <si>
-    <t>CAPC1005X055N</t>
-  </si>
-  <si>
-    <t>CAP-CMP-00365-3</t>
-  </si>
-  <si>
-    <t>100nF</t>
+    <t>0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>C6, C7, C8, C9</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>UMK105BJ104KV-F</t>
+  </si>
+  <si>
+    <t>Farnell</t>
+  </si>
+  <si>
+    <t>2779049</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>C6, C7, C8, C9</t>
-  </si>
-  <si>
-    <t>FP-0402-L_1_0_0_05-W_0_5-IPC_B</t>
-  </si>
-  <si>
-    <t>CMP-14477-000330-2</t>
-  </si>
-  <si>
-    <t>10nF</t>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>GRM033R71C103KE14D</t>
+  </si>
+  <si>
+    <t>2990695</t>
   </si>
   <si>
     <t>Chip Multilayer Ceramic Capacitors for General Purpose, 0201, 10000pF, X7R, 15%, 10%, 16V</t>
   </si>
   <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>FP-GRM033-0_03-IPC_B</t>
-  </si>
-  <si>
-    <t>CMP-06035-000448-1</t>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Littelfuse Inc.</t>
+  </si>
+  <si>
+    <t>Littelfuse</t>
   </si>
   <si>
     <t>PESD0402-140</t>
   </si>
   <si>
+    <t>Future Electronics</t>
+  </si>
+  <si>
+    <t>1128358</t>
+  </si>
+  <si>
     <t>TVS DIODE 14V 40V 0402</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>FP-PESD0402-MFG</t>
-  </si>
-  <si>
-    <t>CMP-08607-000011-1</t>
-  </si>
-  <si>
-    <t>Lumex_SML-LXFM0603SUGCTR</t>
+    <t>DS1, DS2, DS3</t>
+  </si>
+  <si>
+    <t>Lumex Opto/Components Inc.</t>
+  </si>
+  <si>
+    <t>SML-LXFM0603SUGCTR</t>
+  </si>
+  <si>
+    <t>67-2320-1-ND</t>
   </si>
   <si>
     <t>LED, GREEN, 574NM, 20MA, 20MCD MIN, 2.5VF MAX, 0603, 1.10MM T</t>
   </si>
   <si>
-    <t>DS1, DS2, DS3</t>
-  </si>
-  <si>
-    <t>LEDS160X80X110-2N_LXFM0603-GR</t>
-  </si>
-  <si>
-    <t>LED-CMP-00021-2</t>
+    <t>0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Sullins</t>
   </si>
   <si>
     <t>NRPN042MAMS-RC</t>
   </si>
   <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>S6009-04-ND</t>
+  </si>
+  <si>
     <t>Dual Row 8 Position 2 mm Pitch Surface Mount Header</t>
   </si>
   <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>SMB_131-3711-301</t>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Bel Cinch</t>
+  </si>
+  <si>
+    <t>131-3711-301</t>
+  </si>
+  <si>
+    <t>J10507-ND</t>
   </si>
   <si>
     <t>Rf Coaxial Board Mount Connector</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>CONN_131-3711-301</t>
-  </si>
-  <si>
-    <t>47nH 300mA</t>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LQG15HS47NJ02D</t>
+  </si>
+  <si>
+    <t>1091743</t>
   </si>
   <si>
     <t>Multilayer type RF Inductor 47nH ±5% 0.72Ω 300mA 0402</t>
   </si>
   <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>FP-LQG15HH_02-IPC_B</t>
-  </si>
-  <si>
-    <t>CMP-06042-015783-1</t>
-  </si>
-  <si>
-    <t>onsemi_NTR2101PT1G</t>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>onsemi</t>
+  </si>
+  <si>
+    <t>NTR2101PT1G</t>
+  </si>
+  <si>
+    <t>NTR2101PT1GOSCT-ND</t>
   </si>
   <si>
     <t>MOSFET, P-CH, 8VDS, 3.7A ID, 0.052 OHM RDS(ON)@4.5VGS/3.5A, SOT-23-3</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>SOT23_3pins_300x140x112</t>
-  </si>
-  <si>
-    <t>XQR-CMP-00012-1</t>
-  </si>
-  <si>
-    <t>1k</t>
+    <t>TO-236-3, SC-59, SOT-23-3</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R10, R13, R14</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RMCF0402FT1K00</t>
+  </si>
+  <si>
+    <t>6297634</t>
   </si>
   <si>
     <t>1kΩ ±1% 0.063W 0402 Thick Film Chip Resistor AEC-Q200 compliant</t>
   </si>
   <si>
-    <t>R1, R2, R3, R10, R13, R14</t>
-  </si>
-  <si>
-    <t>FP-RMCF0402-MFG</t>
-  </si>
-  <si>
-    <t>CMP-26527-000026-1</t>
-  </si>
-  <si>
-    <t>10k</t>
+    <t>R4, R7, R8</t>
+  </si>
+  <si>
+    <t>RMCF0402FT10K0</t>
+  </si>
+  <si>
+    <t>1731694</t>
   </si>
   <si>
     <t>10kΩ ±1% 0.063W 0402 Thick Film Chip Resistor AEC-Q200 compliant</t>
   </si>
   <si>
-    <t>R4, R7, R8</t>
-  </si>
-  <si>
-    <t>FP-RMCF0402-IPC_C</t>
-  </si>
-  <si>
-    <t>CMP-26527-000128-1</t>
-  </si>
-  <si>
-    <t>100k</t>
+    <t>R9, R11</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100K</t>
+  </si>
+  <si>
+    <t>8519472</t>
   </si>
   <si>
     <t>100kΩ ±1% 0.063W 0402 Thick Film Chip Resistor AEC-Q200 compliant</t>
   </si>
   <si>
-    <t>R9, R11</t>
-  </si>
-  <si>
-    <t>CMP-2000-06984-2</t>
-  </si>
-  <si>
-    <t>Vishay_RCP0603W25R0GEB</t>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>RCP0603W25R0GEB</t>
+  </si>
+  <si>
+    <t>541-2654-1-ND</t>
   </si>
   <si>
     <t>RES, 25 OHM, 2%, 1.5W, 150PPM/C, 0603</t>
   </si>
   <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>RESC1608X055N</t>
-  </si>
-  <si>
-    <t>RES-CMP-00725-3</t>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>u-blox</t>
   </si>
   <si>
     <t>ZED-F9T-00B</t>
   </si>
   <si>
+    <t>672-1197-1-ND</t>
+  </si>
+  <si>
     <t>Multi-band GNSS Receiver with Nanosecond-level Timing Accuracy</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>GPS_ZED-F9T</t>
+    <t>SMD/SMT</t>
+  </si>
+  <si>
+    <t>U2, U3</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
   </si>
   <si>
     <t>SN74LVC3G07DCUR</t>
   </si>
   <si>
+    <t>2460000</t>
+  </si>
+  <si>
     <t>Triple Buffer/Driver With Open-Drain Output, DCU0008A, LARGE T&amp;R</t>
   </si>
   <si>
-    <t>U2, U3</t>
-  </si>
-  <si>
-    <t>DCU0008A_N</t>
-  </si>
-  <si>
-    <t>CMP-0859-00615-3</t>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>TI National Semiconductor</t>
   </si>
   <si>
     <t>LPV511MGX/NOPB</t>
   </si>
   <si>
+    <t>296-44295-1-ND</t>
+  </si>
+  <si>
     <t>micropower Rail-to-Rail Input and Output Operational Amplifier, 5-pin SC-70, Pb-Free</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>DCK0005A_N</t>
-  </si>
-  <si>
-    <t>CMP-0055-01065-3</t>
   </si>
 </sst>
 </file>
@@ -657,17 +703,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CF173D-A622-4634-B7D5-2C2E6A4011C3}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C243A0-500C-42CA-A744-0EC4700B1977}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="18.81640625" customWidth="1"/>
+    <col min="1" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="4" width="15.53125" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
+    <col min="6" max="7" width="15.53125" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" customWidth="1"/>
+    <col min="9" max="9" width="18.53125" customWidth="1"/>
+    <col min="10" max="10" width="15.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,326 +738,476 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
+      <c r="H17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
